--- a/Requirements-Traceability-Matrix-Projet-0.xlsx
+++ b/Requirements-Traceability-Matrix-Projet-0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EAbe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EAbe\Documents\Project 0\Abe_Elmoubarik_Project_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B1C879-C127-4C39-A4C4-04DCB221E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04789BD8-3AF3-421D-9461-CAA48DAED7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52DC6AD0-D93C-4277-A481-1848F6C31E07}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="14400" windowHeight="7270" xr2:uid="{52DC6AD0-D93C-4277-A481-1848F6C31E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>RequirementID</t>
   </si>
@@ -126,6 +126,27 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>All links viable #2</t>
+  </si>
+  <si>
+    <t>All links viable #3</t>
+  </si>
+  <si>
+    <t>All links viable #4</t>
+  </si>
+  <si>
+    <t>The manager clicks on Matrices, the title of the page should be matrix page, the manager clicks back browser button and should be on home page with the title home, The manager clicks on test cases then the browser back button again to go back to home page where the title should be home.</t>
+  </si>
+  <si>
+    <t>Expected Defect Reporting but actual is Report a Defect</t>
+  </si>
+  <si>
+    <t>The manager should see links for Matrices, Test Cases, Defect Reporting and Defect Overview</t>
+  </si>
+  <si>
+    <t>Expected Matrix Page but actual is Matrix Dashboard</t>
   </si>
 </sst>
 </file>
@@ -480,7 +501,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,8 +509,8 @@
     <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="42.6328125" customWidth="1"/>
+    <col min="5" max="5" width="33.90625" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12.81640625" customWidth="1"/>
@@ -637,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -648,7 +669,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -659,7 +680,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -672,8 +693,17 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" t="s">
         <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -683,8 +713,17 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
       <c r="F14" t="s">
         <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements-Traceability-Matrix-Projet-0.xlsx
+++ b/Requirements-Traceability-Matrix-Projet-0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EAbe\Documents\Project 0\Abe_Elmoubarik_Project_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04789BD8-3AF3-421D-9461-CAA48DAED7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2285F18B-F763-4927-B39F-A165601D1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2500" windowWidth="14400" windowHeight="7270" xr2:uid="{52DC6AD0-D93C-4277-A481-1848F6C31E07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52DC6AD0-D93C-4277-A481-1848F6C31E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>RequirementID</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Expected Matrix Page but actual is Matrix Dashboard</t>
+  </si>
+  <si>
+    <t>The manager clicks on links provided in the "examples" table and "titles" from the same table should match</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,6 +652,9 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -660,6 +666,9 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
@@ -671,6 +680,9 @@
       <c r="D11" t="s">
         <v>31</v>
       </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
@@ -681,6 +693,9 @@
       </c>
       <c r="D12" t="s">
         <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>

--- a/Requirements-Traceability-Matrix-Projet-0.xlsx
+++ b/Requirements-Traceability-Matrix-Projet-0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EAbe\Documents\Project 0\Abe_Elmoubarik_Project_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2285F18B-F763-4927-B39F-A165601D1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647C360-6D5D-4B8F-B14F-DC0B72B93163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52DC6AD0-D93C-4277-A481-1848F6C31E07}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>RequirementID</t>
   </si>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>The manager clicks on links provided in the "examples" table and "titles" from the same table should match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected:Matrix Overivew Actual:Matrix Dashboard </t>
+  </si>
+  <si>
+    <t>Expected :Test Case Overivew
+Actual   :Test Cases</t>
+  </si>
+  <si>
+    <t>Expected :Defect Reporter
+Actual   :Case Reporter</t>
+  </si>
+  <si>
+    <t>Expected :Defect Overview
+Actual   :Case Overview</t>
   </si>
 </sst>
 </file>
@@ -185,8 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D7DF78-6037-4E06-AC9E-1FEBFC835744}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,10 +674,16 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -670,10 +694,16 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -684,10 +714,16 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -698,7 +734,13 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
